--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ALLFISTxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ALLFISTxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>ALLFIS</t>
-  </si>
-  <si>
-    <t>180.00774595935</t>
-  </si>
-  <si>
-    <t>-115.443335183461</t>
-  </si>
-  <si>
-    <t>-118.82452249406</t>
-  </si>
-  <si>
-    <t>64.8687410568332</t>
-  </si>
-  <si>
-    <t>38.5266048881122</t>
-  </si>
-  <si>
-    <t>-9.21210975789563</t>
-  </si>
-  <si>
-    <t>-98.3723302530138</t>
-  </si>
-  <si>
-    <t>-45.3414464097109</t>
-  </si>
-  <si>
-    <t>-130.743883758868</t>
-  </si>
-  <si>
-    <t>-233.312743680682</t>
-  </si>
-  <si>
-    <t>-133.49972206946</t>
-  </si>
-  <si>
-    <t>-58.7801742921406</t>
-  </si>
-  <si>
-    <t>62.4233485645404</t>
-  </si>
-  <si>
-    <t>-133.373882223266</t>
-  </si>
-  <si>
-    <t>15.253212392442</t>
-  </si>
-  <si>
-    <t>-11.9268256608102</t>
-  </si>
-  <si>
-    <t>38.7384680531222</t>
-  </si>
-  <si>
-    <t>-44.8361424752206</t>
-  </si>
-  <si>
-    <t>23.9405219755249</t>
-  </si>
-  <si>
-    <t>-5.36028620330171</t>
-  </si>
-  <si>
-    <t>94.3441043807079</t>
-  </si>
-  <si>
-    <t>-78.1834528119457</t>
-  </si>
-  <si>
-    <t>-34.0233333152837</t>
-  </si>
-  <si>
-    <t>-46.5288360991831</t>
-  </si>
-  <si>
-    <t>129.567585721129</t>
-  </si>
-  <si>
-    <t>-12.0403555153443</t>
-  </si>
-  <si>
-    <t>-26.0267914942669</t>
-  </si>
-  <si>
-    <t>-42.6980005597161</t>
-  </si>
-  <si>
-    <t>-5.33504534604253</t>
-  </si>
-  <si>
-    <t>-16.0287691906578</t>
-  </si>
-  <si>
-    <t>4.30735357202184</t>
-  </si>
-  <si>
-    <t>-132.212402123037</t>
-  </si>
-  <si>
-    <t>-143.93346891218</t>
-  </si>
-  <si>
-    <t>-146.405495847696</t>
-  </si>
-  <si>
-    <t>30.3592555167452</t>
-  </si>
-  <si>
-    <t>-32.9127867844045</t>
-  </si>
-  <si>
-    <t>23.3668959215438</t>
-  </si>
-  <si>
-    <t>-49.7572669252836</t>
-  </si>
-  <si>
-    <t>-77.1572450269232</t>
-  </si>
-  <si>
-    <t>42.2853619689995</t>
-  </si>
-  <si>
-    <t>67.1798514219054</t>
-  </si>
-  <si>
-    <t>-67.3797930795486</t>
-  </si>
-  <si>
-    <t>65.9069707151857</t>
-  </si>
-  <si>
-    <t>-56.492172365538</t>
-  </si>
-  <si>
-    <t>4.41234438528045</t>
-  </si>
-  <si>
-    <t>84.2109631959042</t>
-  </si>
-  <si>
-    <t>-68.4308184078436</t>
-  </si>
-  <si>
-    <t>4.40074123273553</t>
-  </si>
-  <si>
-    <t>-73.2130255732181</t>
-  </si>
-  <si>
-    <t>60.9540098754251</t>
-  </si>
-  <si>
-    <t>-27.2920214567866</t>
-  </si>
-  <si>
-    <t>-19.5050835068123</t>
-  </si>
-  <si>
-    <t>-46.1007592038704</t>
-  </si>
-  <si>
-    <t>15.2163058817541</t>
-  </si>
-  <si>
-    <t>54.4667188043109</t>
-  </si>
-  <si>
-    <t>-0.494150874339084</t>
-  </si>
-  <si>
-    <t>-87.3145302204548</t>
-  </si>
-  <si>
-    <t>39.6369729370458</t>
-  </si>
-  <si>
-    <t>31.9850409025362</t>
-  </si>
-  <si>
-    <t>-27.5671786264861</t>
-  </si>
-  <si>
-    <t>-127.823948022859</t>
-  </si>
-  <si>
-    <t>76.2907717722669</t>
-  </si>
-  <si>
-    <t>17.0650444272287</t>
-  </si>
-  <si>
-    <t>-44.6714846342966</t>
-  </si>
-  <si>
-    <t>19.0531534538704</t>
-  </si>
-  <si>
-    <t>88.3822340272018</t>
-  </si>
-  <si>
-    <t>-17.6865373794058</t>
-  </si>
-  <si>
-    <t>-57.8380185371275</t>
-  </si>
-  <si>
-    <t>-64.034611465293</t>
-  </si>
-  <si>
-    <t>90.2904936333548</t>
-  </si>
-  <si>
-    <t>-39.0823497557508</t>
-  </si>
-  <si>
-    <t>41.5145193937815</t>
-  </si>
-  <si>
-    <t>-179.388823748844</t>
-  </si>
-  <si>
-    <t>101.989625558119</t>
-  </si>
-  <si>
-    <t>73.8790677051979</t>
-  </si>
-  <si>
-    <t>7.15377891090566</t>
-  </si>
-  <si>
-    <t>-116.820032091729</t>
-  </si>
-  <si>
-    <t>-507.83319386228</t>
-  </si>
-  <si>
-    <t>382.497938759308</t>
-  </si>
-  <si>
-    <t>295.65680157164</t>
-  </si>
-  <si>
-    <t>-36.9138402691196</t>
-  </si>
-  <si>
-    <t>285.93555556868</t>
-  </si>
-  <si>
-    <t>-11.27052746144</t>
-  </si>
-  <si>
-    <t>206.071645349001</t>
+    <t>12.1181929812301</t>
+  </si>
+  <si>
+    <t>882.810930256281</t>
+  </si>
+  <si>
+    <t>-1271.72593392369</t>
+  </si>
+  <si>
+    <t>337.586913578874</t>
+  </si>
+  <si>
+    <t>-1403.08523858225</t>
+  </si>
+  <si>
+    <t>197.375257121186</t>
+  </si>
+  <si>
+    <t>574.383015921201</t>
+  </si>
+  <si>
+    <t>-1053.64085291308</t>
+  </si>
+  <si>
+    <t>253.798474296045</t>
+  </si>
+  <si>
+    <t>-286.505101570114</t>
+  </si>
+  <si>
+    <t>-653.591038424292</t>
+  </si>
+  <si>
+    <t>-399.847066180737</t>
+  </si>
+  <si>
+    <t>-123.287946262632</t>
+  </si>
+  <si>
+    <t>-241.303625347136</t>
+  </si>
+  <si>
+    <t>-995.401509430229</t>
+  </si>
+  <si>
+    <t>749.324724155618</t>
+  </si>
+  <si>
+    <t>-893.711034448548</t>
+  </si>
+  <si>
+    <t>207.219081217125</t>
+  </si>
+  <si>
+    <t>593.839382273665</t>
+  </si>
+  <si>
+    <t>-47.250390418867</t>
+  </si>
+  <si>
+    <t>737.873657054432</t>
+  </si>
+  <si>
+    <t>-1589.0638519091</t>
+  </si>
+  <si>
+    <t>1343.30215660021</t>
+  </si>
+  <si>
+    <t>-1852.2783543885</t>
+  </si>
+  <si>
+    <t>1338.63451324669</t>
+  </si>
+  <si>
+    <t>-1859.59537446129</t>
+  </si>
+  <si>
+    <t>3436.42923156267</t>
+  </si>
+  <si>
+    <t>-2620.29239026629</t>
+  </si>
+  <si>
+    <t>45.3493746114254</t>
+  </si>
+  <si>
+    <t>-1914.07774328263</t>
+  </si>
+  <si>
+    <t>664.772642656251</t>
+  </si>
+  <si>
+    <t>-856.92929843596</t>
+  </si>
+  <si>
+    <t>-2487.34720564282</t>
+  </si>
+  <si>
+    <t>-1309.19012359349</t>
+  </si>
+  <si>
+    <t>-1550.31479015088</t>
+  </si>
+  <si>
+    <t>-108.676245778122</t>
+  </si>
+  <si>
+    <t>-1636.77738370605</t>
+  </si>
+  <si>
+    <t>1436.35217864534</t>
+  </si>
+  <si>
+    <t>-1250.77587461951</t>
+  </si>
+  <si>
+    <t>216.938305516574</t>
+  </si>
+  <si>
+    <t>-870.300750609254</t>
+  </si>
+  <si>
+    <t>295.510587779379</t>
+  </si>
+  <si>
+    <t>-967.610612583743</t>
+  </si>
+  <si>
+    <t>157.42210287333</t>
+  </si>
+  <si>
+    <t>-1450.5979464737</t>
+  </si>
+  <si>
+    <t>-535.264892861022</t>
+  </si>
+  <si>
+    <t>-1349.52423851918</t>
+  </si>
+  <si>
+    <t>1097.28062037647</t>
+  </si>
+  <si>
+    <t>-2027.11832559927</t>
+  </si>
+  <si>
+    <t>637.543981930728</t>
+  </si>
+  <si>
+    <t>-2010.42817560865</t>
+  </si>
+  <si>
+    <t>1449.13036450127</t>
+  </si>
+  <si>
+    <t>-1469.85745870253</t>
+  </si>
+  <si>
+    <t>265.672725451779</t>
+  </si>
+  <si>
+    <t>-1620.69846303799</t>
+  </si>
+  <si>
+    <t>1153.73012477256</t>
+  </si>
+  <si>
+    <t>-307.40061001412</t>
+  </si>
+  <si>
+    <t>-83.2118987520844</t>
+  </si>
+  <si>
+    <t>716.355819835102</t>
+  </si>
+  <si>
+    <t>-1140.17889108244</t>
+  </si>
+  <si>
+    <t>138.631379732906</t>
+  </si>
+  <si>
+    <t>-931.085960514476</t>
+  </si>
+  <si>
+    <t>-129.188842262061</t>
+  </si>
+  <si>
+    <t>-1300.98832240842</t>
+  </si>
+  <si>
+    <t>-38.2253067382444</t>
+  </si>
+  <si>
+    <t>-351.19560499884</t>
+  </si>
+  <si>
+    <t>-817.475969852443</t>
+  </si>
+  <si>
+    <t>-912.927221487091</t>
+  </si>
+  <si>
+    <t>246.317375405943</t>
+  </si>
+  <si>
+    <t>332.60292459972</t>
+  </si>
+  <si>
+    <t>-771.288940472405</t>
+  </si>
+  <si>
+    <t>297.79475274128</t>
+  </si>
+  <si>
+    <t>-1605.57692087785</t>
+  </si>
+  <si>
+    <t>1052.386388386</t>
+  </si>
+  <si>
+    <t>-575.490067122668</t>
+  </si>
+  <si>
+    <t>71.7792711916009</t>
+  </si>
+  <si>
+    <t>1987.28038095709</t>
+  </si>
+  <si>
+    <t>22318.1840096952</t>
+  </si>
+  <si>
+    <t>2070.73056548185</t>
+  </si>
+  <si>
+    <t>5386.46545172316</t>
+  </si>
+  <si>
+    <t>4773.5939373798</t>
+  </si>
+  <si>
+    <t>-9885.07640610185</t>
+  </si>
+  <si>
+    <t>-1756.60823086719</t>
+  </si>
+  <si>
+    <t>1674.14292900955</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
